--- a/ML_Matrix.xlsx
+++ b/ML_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirconium/Desktop/25Spring/ECE 752/Project Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE439FDB-0282-F147-967D-1F3BBFF582B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E9A40-A732-BE48-B1D0-8AE40171212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34320" yWindow="2820" windowWidth="28100" windowHeight="17360" xr2:uid="{C56A063B-C154-D34B-9316-62281AC09EF1}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Trace</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Overfitting(1)</t>
   </si>
   <si>
-    <t>Classified.v2 MPMLP</t>
-  </si>
-  <si>
     <t>471.omnetpp-s2</t>
   </si>
   <si>
@@ -65,6 +62,14 @@
   </si>
   <si>
     <t>623.xalancbmk-s1</t>
+  </si>
+  <si>
+    <t>Overfitting(1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified.v4 MPMLP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1058,14 +1063,14 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
@@ -1094,9 +1099,15 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.3627000000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.37390000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="25">
       <c r="A3" s="2" t="s">
@@ -1116,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -1130,18 +1141,24 @@
     </row>
     <row r="5" spans="1:5" ht="25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2">
+        <v>0.5867</v>
+      </c>
+      <c r="D5" s="2">
+        <v>46.8187</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.61829999999999996</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1156,10 +1173,10 @@
     </row>
     <row r="7" spans="1:5" ht="25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>0.57740000000000002</v>
@@ -1173,18 +1190,24 @@
     </row>
     <row r="8" spans="1:5" ht="25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15.7012</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.58250000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -1199,10 +1222,10 @@
     </row>
     <row r="10" spans="1:5" ht="25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>0.69599999999999995</v>
@@ -1216,24 +1239,30 @@
     </row>
     <row r="11" spans="1:5" ht="25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32.976399999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.7600000000000001E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -1242,13 +1271,13 @@
     </row>
     <row r="13" spans="1:5" ht="25">
       <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>32.554499999999997</v>
@@ -1259,18 +1288,24 @@
     </row>
     <row r="14" spans="1:5" ht="25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12.086</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.7177</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1285,10 +1320,10 @@
     </row>
     <row r="16" spans="1:5" ht="25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>0.95430000000000004</v>

--- a/ML_Matrix.xlsx
+++ b/ML_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirconium/Desktop/25Spring/ECE 752/Project Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E9A40-A732-BE48-B1D0-8AE40171212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29649BCB-B776-0048-A583-C51DCEB57FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34320" yWindow="2820" windowWidth="28100" windowHeight="17360" xr2:uid="{C56A063B-C154-D34B-9316-62281AC09EF1}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Trace</t>
   </si>
@@ -40,12 +40,6 @@
     <t>bfs-10</t>
   </si>
   <si>
-    <t>MPMLP</t>
-  </si>
-  <si>
-    <t>Classified MPMLP</t>
-  </si>
-  <si>
     <t>Overfitting(1)</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
   </si>
   <si>
     <t>605.mcf-s8</t>
-  </si>
-  <si>
-    <t>Unacceptable Low</t>
   </si>
   <si>
     <t>623.xalancbmk-s1</t>
@@ -68,7 +59,63 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Classified.v4 MPMLP</t>
+    <t>MPMLP(100M)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPMLP(10M)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified MPMLP(10M)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified.v4 MPMLP(10M)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified.v5 MPMLP(10M-nseq)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified.v5 MPMLP(100M-nseq)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>605.mcf-s8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPMLP--Original</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified MPMLP--add classifier</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified.v4 MPMLP--separate output</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified.v5 MPMLP--add classifier and threshold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nseq--too short will classified to non-seq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq--too short will classified to seq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified.v5 MPMLP(10M-seq)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classified.v5 MPMLP(100M-seq)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1060,16 +1107,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F85EE1A-4497-984C-B7C5-3CC8B7DBE197}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="64.5" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
@@ -1097,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>5.3627000000000002</v>
@@ -1114,225 +1161,493 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.4405</v>
+      </c>
+      <c r="D3" s="2">
+        <v>276.11559999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.4118</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.37409999999999999</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.5867</v>
-      </c>
       <c r="D5" s="2">
-        <v>46.8187</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.61829999999999996</v>
+        <v>0.37409999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.4415</v>
+      </c>
       <c r="D6" s="2">
-        <v>13.54</v>
+        <v>246.49889999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.41189999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>0.57740000000000002</v>
+        <v>0.44159999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>43.080300000000001</v>
+        <v>246.4846</v>
       </c>
       <c r="E7" s="2">
-        <v>0.61360000000000003</v>
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>0.69720000000000004</v>
+        <v>0.5867</v>
       </c>
       <c r="D8" s="2">
-        <v>15.7012</v>
+        <v>46.8187</v>
       </c>
       <c r="E8" s="2">
-        <v>0.58250000000000002</v>
+        <v>0.61829999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>4.87</v>
+        <v>13.54</v>
       </c>
       <c r="E9" s="2">
-        <v>0.57099999999999995</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>0.69599999999999995</v>
+        <v>0.57740000000000002</v>
       </c>
       <c r="D10" s="2">
-        <v>13.3973</v>
+        <v>43.080300000000001</v>
       </c>
       <c r="E10" s="2">
-        <v>0.59799999999999998</v>
+        <v>0.61360000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>0.13450000000000001</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="D11" s="2">
-        <v>32.976399999999998</v>
+        <v>43.2575</v>
       </c>
       <c r="E11" s="2">
-        <v>3.7600000000000001E-2</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43.184100000000001</v>
+      </c>
       <c r="E12" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.69720000000000004</v>
       </c>
       <c r="D13" s="2">
-        <v>32.554499999999997</v>
+        <v>15.7012</v>
       </c>
       <c r="E13" s="2">
-        <v>3.8100000000000002E-2</v>
+        <v>0.58250000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.95440000000000003</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>12.086</v>
+        <v>4.87</v>
       </c>
       <c r="E14" s="2">
-        <v>0.7177</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.69599999999999995</v>
+      </c>
       <c r="D15" s="2">
-        <v>3.78</v>
+        <v>13.3973</v>
       </c>
       <c r="E15" s="2">
-        <v>0.72399999999999998</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25">
       <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13.328099999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.5877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="D17" s="2">
+        <v>13.2498</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.58679999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C18" s="2">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>32.976399999999998</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.58E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>545.26390000000004</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C21" s="2">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32.554499999999997</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>522.75340000000006</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.19E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.65E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>522.87729999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12.086</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.7177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
         <v>0.95430000000000004</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D26" s="2">
         <v>6.0644</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E26" s="2">
         <v>0.71750000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.0411000000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.7177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="D28" s="2">
+        <v>57.414299999999997</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.61240000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6.1001000000000003</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.71809999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="D30" s="2">
+        <v>57.496400000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.61260000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25">
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="25">
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="25">
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="25">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="25">
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="25">
+      <c r="B37" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ML_Matrix.xlsx
+++ b/ML_Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirconium/Desktop/25Spring/ECE 752/Project Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirconium/Desktop/25Spring/ECE 752/752Prefetcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29649BCB-B776-0048-A583-C51DCEB57FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C832D2B-BD4E-5740-81C8-A257E82E4439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34320" yWindow="2820" windowWidth="28100" windowHeight="17360" xr2:uid="{C56A063B-C154-D34B-9316-62281AC09EF1}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>Trace</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Training Acc</t>
   </si>
   <si>
-    <t>Training Loss</t>
-  </si>
-  <si>
     <t>Val ACC</t>
   </si>
   <si>
@@ -117,13 +114,40 @@
   <si>
     <t>Classified.v5 MPMLP(100M-seq)</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sssp-5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>470.lmb-s1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>459.GemsFDTD-s1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>649.fotonik3d-s1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>654.roms-s7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training Loss(BCE)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPMLP(10M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,6 +317,12 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -722,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +760,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F85EE1A-4497-984C-B7C5-3CC8B7DBE197}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1118,7 +1151,7 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1133,21 +1166,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>5.3627000000000002</v>
@@ -1158,10 +1191,10 @@
     </row>
     <row r="3" spans="1:5" ht="25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>0.4405</v>
@@ -1175,26 +1208,26 @@
     </row>
     <row r="4" spans="1:5" ht="25">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="25">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>3.0999999999999999E-3</v>
@@ -1205,10 +1238,10 @@
     </row>
     <row r="6" spans="1:5" ht="25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>0.4415</v>
@@ -1222,10 +1255,10 @@
     </row>
     <row r="7" spans="1:5" ht="25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>0.44159999999999999</v>
@@ -1239,415 +1272,670 @@
     </row>
     <row r="8" spans="1:5" ht="25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>0.5867</v>
+        <v>0.1996</v>
       </c>
       <c r="D8" s="2">
-        <v>46.8187</v>
+        <v>58.342799999999997</v>
       </c>
       <c r="E8" s="2">
-        <v>0.61829999999999996</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.10009999999999999</v>
+      </c>
       <c r="D9" s="2">
-        <v>13.54</v>
+        <v>53.527299999999997</v>
       </c>
       <c r="E9" s="2">
-        <v>0.57599999999999996</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>0.57740000000000002</v>
+        <v>0.1007</v>
       </c>
       <c r="D10" s="2">
-        <v>43.080300000000001</v>
+        <v>53.587800000000001</v>
       </c>
       <c r="E10" s="2">
-        <v>0.61360000000000003</v>
+        <v>3.32E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>0.57330000000000003</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>43.2575</v>
+        <v>42.351900000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>0.61199999999999999</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>0.57520000000000004</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="D12" s="2">
-        <v>43.184100000000001</v>
+        <v>34.500999999999998</v>
       </c>
       <c r="E12" s="2">
-        <v>0.61199999999999999</v>
+        <v>0.46739999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>0.69720000000000004</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="D13" s="2">
-        <v>15.7012</v>
+        <v>34.500799999999998</v>
       </c>
       <c r="E13" s="2">
-        <v>0.58250000000000002</v>
+        <v>0.46650000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.85519999999999996</v>
+      </c>
       <c r="D14" s="2">
-        <v>4.87</v>
+        <v>7.6368</v>
       </c>
       <c r="E14" s="2">
-        <v>0.57099999999999995</v>
+        <v>0.90029999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>0.69599999999999995</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D15" s="2">
-        <v>13.3973</v>
+        <v>5.2611999999999997</v>
       </c>
       <c r="E15" s="2">
-        <v>0.59799999999999998</v>
+        <v>0.90180000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>0.69640000000000002</v>
+        <v>0.85360000000000003</v>
       </c>
       <c r="D16" s="2">
-        <v>13.328099999999999</v>
+        <v>5.2432999999999996</v>
       </c>
       <c r="E16" s="2">
-        <v>0.5877</v>
+        <v>0.90169999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>0.69810000000000005</v>
+        <v>0.5867</v>
       </c>
       <c r="D17" s="2">
-        <v>13.2498</v>
+        <v>46.8187</v>
       </c>
       <c r="E17" s="2">
-        <v>0.58679999999999999</v>
+        <v>0.61829999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2">
-        <v>0.13450000000000001</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>32.976399999999998</v>
+        <v>13.54</v>
       </c>
       <c r="E18" s="2">
-        <v>3.7600000000000001E-2</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>4.58E-2</v>
+        <v>0.57740000000000002</v>
       </c>
       <c r="D19" s="2">
-        <v>545.26390000000004</v>
+        <v>43.080300000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>0.61360000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43.2575</v>
+      </c>
       <c r="E20" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>0.10920000000000001</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="D21" s="2">
-        <v>32.554499999999997</v>
+        <v>43.184100000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>3.8100000000000002E-2</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>4.6800000000000001E-2</v>
+        <v>0.69720000000000004</v>
       </c>
       <c r="D22" s="2">
-        <v>522.75340000000006</v>
+        <v>15.7012</v>
       </c>
       <c r="E22" s="2">
-        <v>4.19E-2</v>
+        <v>0.58250000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4.65E-2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>522.87729999999999</v>
+        <v>4.87</v>
       </c>
       <c r="E23" s="2">
-        <v>4.1700000000000001E-2</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>0.95440000000000003</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="D24" s="2">
-        <v>12.086</v>
+        <v>13.3973</v>
       </c>
       <c r="E24" s="2">
-        <v>0.7177</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.69640000000000002</v>
+      </c>
       <c r="D25" s="2">
-        <v>3.78</v>
+        <v>13.328099999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>0.72399999999999998</v>
+        <v>0.5877</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2">
-        <v>0.95430000000000004</v>
+        <v>0.69810000000000005</v>
       </c>
       <c r="D26" s="2">
-        <v>6.0644</v>
+        <v>13.2498</v>
       </c>
       <c r="E26" s="2">
-        <v>0.71750000000000003</v>
+        <v>0.58679999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
-        <v>0.95430000000000004</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>6.0411000000000001</v>
+        <v>32.976399999999998</v>
       </c>
       <c r="E27" s="2">
-        <v>0.7177</v>
+        <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>0.95289999999999997</v>
+        <v>4.58E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>57.414299999999997</v>
+        <v>545.26390000000004</v>
       </c>
       <c r="E28" s="2">
-        <v>0.61240000000000006</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>0.95430000000000004</v>
-      </c>
-      <c r="D29" s="2">
-        <v>6.1001000000000003</v>
-      </c>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2">
-        <v>0.71809999999999996</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>32.554499999999997</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>522.75340000000006</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.19E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4.65E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>522.87729999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="D33" s="2">
+        <v>12.086</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.7177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6.0644</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.71750000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6.0411000000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.7177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
         <v>0.95289999999999997</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D37" s="2">
+        <v>57.414299999999997</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.61240000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6.1001000000000003</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.71809999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="D39" s="2">
         <v>57.496400000000001</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E39" s="2">
         <v>0.61260000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25">
-      <c r="B32" s="2" t="s">
+    <row r="40" spans="1:5" ht="25">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>15.638500000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25">
+      <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="D41" s="2">
+        <v>14.924899999999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.3286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25">
+      <c r="A42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="D42" s="2">
+        <v>14.8583</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.3322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.9234</v>
+      </c>
+      <c r="D43" s="2">
+        <v>6.9646999999999997</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.82650000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3.8921000000000001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.82569999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3.9081999999999999</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25">
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25">
+      <c r="B48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="25">
-      <c r="B33" s="2" t="s">
+    <row r="49" spans="2:2" ht="25">
+      <c r="B49" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="25">
-      <c r="B34" s="2" t="s">
+    <row r="50" spans="2:2" ht="25">
+      <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="25">
-      <c r="B35" s="2" t="s">
+    <row r="51" spans="2:2" ht="25">
+      <c r="B51" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="25">
-      <c r="B36" s="2" t="s">
+    <row r="52" spans="2:2" ht="25">
+      <c r="B52" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="25">
-      <c r="B37" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
